--- a/git.xlsx
+++ b/git.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\git test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GithubTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE661A-A787-4FA2-AD54-C8D6239A5ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E84CF7-63FC-4811-8B52-7C1570D85614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>git init</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,63 +676,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">vi xxx: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">编辑文件模式
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ESC + ZZ: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存退出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git stash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保存分支的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分支…</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,6 +705,57 @@
       </rPr>
       <t>(Github)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交工作区的所有文件到暂缓区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vi xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>ESC + ZZ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑文件xxx
+保存退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug分支…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,6 +879,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -901,15 +906,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>201489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>11470</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>18313</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -925,8 +930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5210279" y="1415409"/>
-          <a:ext cx="1626579" cy="1688176"/>
+          <a:off x="6403492" y="1579301"/>
+          <a:ext cx="1735288" cy="742613"/>
           <a:chOff x="5212003" y="1417760"/>
           <a:chExt cx="1627056" cy="2395901"/>
         </a:xfrm>
@@ -1374,264 +1379,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="29.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="32.65" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="6"/>
+      <c r="D1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="131.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
